--- a/data_dictionary.xlsx
+++ b/data_dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\Football_Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9472CDF4-4500-408B-82C6-3A2BB4488671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE3C71F-F515-403C-863C-0B8B04B77AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="810" firstSheet="1" activeTab="5" xr2:uid="{1F86F7B4-1ACF-4571-BA32-F73A3A2DCEC5}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="21600" windowHeight="11385" tabRatio="810" activeTab="5" xr2:uid="{1F86F7B4-1ACF-4571-BA32-F73A3A2DCEC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Stadiums" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Player!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">PlayerSeason!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Scores!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Standings!$A$1:$G$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Standings!$A$1:$G$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TeamSeason!$A$1:$G$235</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2852" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2846" uniqueCount="719">
   <si>
     <t>PlayerID</t>
   </si>
@@ -2664,7 +2664,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2889,7 +2889,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A14" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3230,7 +3230,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9633,10 +9633,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC8E16E-8831-450D-B212-E9658387DE44}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10151,77 +10151,54 @@
         <v>714</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="22.5">
-      <c r="A23" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="7">
-        <v>32</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>63</v>
+    <row r="23" spans="1:7">
+      <c r="A23" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="9">
+        <v>32</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="10" t="s">
-        <v>715</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="9">
-        <v>32</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="15" t="s">
+      <c r="A24" s="15" t="s">
         <v>717</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="14">
-        <v>32</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="15" t="s">
+      <c r="B24" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="14">
+        <v>32</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="15" t="s">
         <v>718</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G25" xr:uid="{8DC8E16E-8831-450D-B212-E9658387DE44}"/>
+  <autoFilter ref="A1:G24" xr:uid="{8DC8E16E-8831-450D-B212-E9658387DE44}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data_dictionary.xlsx
+++ b/data_dictionary.xlsx
@@ -8,25 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\Football_Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF37DF68-0BD7-4466-A6EF-7DE007FD3F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4142A21-23A2-4DF2-801E-F38B75706A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="21600" windowHeight="11385" tabRatio="810" activeTab="3" xr2:uid="{1F86F7B4-1ACF-4571-BA32-F73A3A2DCEC5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="810" activeTab="4" xr2:uid="{1F86F7B4-1ACF-4571-BA32-F73A3A2DCEC5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Stadiums" sheetId="1" r:id="rId1"/>
-    <sheet name="Teams" sheetId="2" r:id="rId2"/>
-    <sheet name="Standings" sheetId="8" r:id="rId3"/>
-    <sheet name="Scores" sheetId="4" r:id="rId4"/>
-    <sheet name="TeamSeason" sheetId="7" r:id="rId5"/>
-    <sheet name="PlayerSeason" sheetId="6" r:id="rId6"/>
-    <sheet name="Player" sheetId="5" r:id="rId7"/>
+    <sheet name="sd_stadium" sheetId="1" r:id="rId1"/>
+    <sheet name="sd_teams" sheetId="2" r:id="rId2"/>
+    <sheet name="sd_standings" sheetId="8" r:id="rId3"/>
+    <sheet name="sd_scores" sheetId="4" r:id="rId4"/>
+    <sheet name="sd_team_stats" sheetId="7" r:id="rId5"/>
+    <sheet name="kg_stadiums" sheetId="9" r:id="rId6"/>
+    <sheet name="kg_scores_bets" sheetId="10" r:id="rId7"/>
+    <sheet name="kg_teams" sheetId="11" r:id="rId8"/>
+    <sheet name="PlayerSeason" sheetId="6" r:id="rId9"/>
+    <sheet name="Player" sheetId="5" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Player!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">PlayerSeason!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Scores!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Standings!$A$1:$G$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TeamSeason!$A$1:$G$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Player!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">PlayerSeason!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">sd_scores!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">sd_standings!$A$1:$G$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">sd_team_stats!$A$1:$G$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1816,7 +1819,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2033,6 +2036,668 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B58B18E-ACC6-4C00-8F7A-2B274EA6BEAE}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="63.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A1" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="22.5">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4">
+        <v>50</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="22.5">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="56.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>50</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4">
+        <v>50</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2">
+        <v>50</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="33.75">
+      <c r="A13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>32</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="22.5">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="4">
+        <v>50</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>32</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="22.5">
+      <c r="A18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4">
+        <v>3</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>32</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="22.5">
+      <c r="A21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
+        <v>32</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>32</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4">
+        <v>32</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="22.5">
+      <c r="A25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4">
+        <v>32</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>32</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4">
+        <v>32</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{4B58B18E-ACC6-4C00-8F7A-2B274EA6BEAE}"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2044,7 +2709,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2388,7 +3053,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2963,8 +3628,8 @@
   </sheetPr>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3465,14 +4130,14 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="49.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="7" max="7" width="89.7109375" customWidth="1"/>
     <col min="9" max="9" width="46.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -4155,6 +4820,57 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A883A46-7F2B-42FF-80E4-DF0ACBDE71A1}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B7F4E1E-8F69-49DC-8037-B11C3B0CB905}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6D8C2C-CA2B-4BC3-ACAB-7984C2F714F9}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A19309-50B2-47E4-B709-6CE45C97E351}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -6982,666 +7698,4 @@
   <autoFilter ref="A1:G1" xr:uid="{17A19309-50B2-47E4-B709-6CE45C97E351}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B58B18E-ACC6-4C00-8F7A-2B274EA6BEAE}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:G28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="63.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A1" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>32</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="22.5">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>32</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4">
-        <v>50</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2">
-        <v>50</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="22.5">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="56.25">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2">
-        <v>50</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4">
-        <v>50</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>32</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2">
-        <v>50</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="33.75">
-      <c r="A13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4">
-        <v>32</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="22.5">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2">
-        <v>3</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="4">
-        <v>50</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
-        <v>32</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="22.5">
-      <c r="A18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="4">
-        <v>3</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="2">
-        <v>10</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="4">
-        <v>32</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="22.5">
-      <c r="A21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="2">
-        <v>10</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="4">
-        <v>32</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2">
-        <v>32</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="4">
-        <v>32</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="22.5">
-      <c r="A25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="4">
-        <v>32</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2">
-        <v>32</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="4">
-        <v>32</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{4B58B18E-ACC6-4C00-8F7A-2B274EA6BEAE}"/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/data_dictionary.xlsx
+++ b/data_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\Football_Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4142A21-23A2-4DF2-801E-F38B75706A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65842143-6E69-4EED-AA67-4B9B3A42DD04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="810" activeTab="4" xr2:uid="{1F86F7B4-1ACF-4571-BA32-F73A3A2DCEC5}"/>
   </bookViews>
@@ -1386,7 +1386,7 @@
       <name val="Gotham Medium"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1408,6 +1408,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1452,7 +1458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1497,6 +1503,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4132,7 +4141,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomLeft" activeCell="A22" activeCellId="2" sqref="A2 A3 A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4166,7 +4175,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="22.5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="16" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -4193,7 +4202,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="16" t="s">
         <v>72</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -4706,7 +4715,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="16" t="s">
         <v>397</v>
       </c>
       <c r="B22" s="2" t="s">

--- a/data_dictionary.xlsx
+++ b/data_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\Football_Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65842143-6E69-4EED-AA67-4B9B3A42DD04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D98EEE0-CFF2-48F9-8CFE-B4EE437623C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="810" activeTab="4" xr2:uid="{1F86F7B4-1ACF-4571-BA32-F73A3A2DCEC5}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="14610" windowHeight="13995" tabRatio="810" firstSheet="9" activeTab="12" xr2:uid="{1F86F7B4-1ACF-4571-BA32-F73A3A2DCEC5}"/>
   </bookViews>
   <sheets>
     <sheet name="sd_stadium" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,14 @@
     <sheet name="kg_teams" sheetId="11" r:id="rId8"/>
     <sheet name="PlayerSeason" sheetId="6" r:id="rId9"/>
     <sheet name="Player" sheetId="5" r:id="rId10"/>
+    <sheet name="ncaa_games" sheetId="15" r:id="rId11"/>
+    <sheet name="ncaa_stadiums" sheetId="14" r:id="rId12"/>
+    <sheet name="ncaa_teams" sheetId="13" r:id="rId13"/>
+    <sheet name="ncaa_teams_season" sheetId="12" r:id="rId14"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">ncaa_games!$A$1:$G$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">ncaa_teams_season!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Player!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">PlayerSeason!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">sd_scores!$A$1:$G$1</definedName>
@@ -52,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="566">
   <si>
     <t>PlayerID</t>
   </si>
@@ -1360,6 +1366,396 @@
   </si>
   <si>
     <t>varchar</t>
+  </si>
+  <si>
+    <t>StatID</t>
+  </si>
+  <si>
+    <t>The unique ID of the stat</t>
+  </si>
+  <si>
+    <t>The college football regular season for which these totals apply</t>
+  </si>
+  <si>
+    <t>Team name</t>
+  </si>
+  <si>
+    <t>Total number of wins</t>
+  </si>
+  <si>
+    <t>Total number of losses</t>
+  </si>
+  <si>
+    <t>Total team points for</t>
+  </si>
+  <si>
+    <t>Total team points against</t>
+  </si>
+  <si>
+    <t>Total team conference wins</t>
+  </si>
+  <si>
+    <t>Total team conference losses</t>
+  </si>
+  <si>
+    <t>ConferencePointsFor</t>
+  </si>
+  <si>
+    <t>Total team conference points for</t>
+  </si>
+  <si>
+    <t>ConferencePointsAgainst</t>
+  </si>
+  <si>
+    <t>Total team conference points against</t>
+  </si>
+  <si>
+    <t>HomeWins</t>
+  </si>
+  <si>
+    <t>Total team home wins</t>
+  </si>
+  <si>
+    <t>HomeLosses</t>
+  </si>
+  <si>
+    <t>Total team home losses</t>
+  </si>
+  <si>
+    <t>RoadWins</t>
+  </si>
+  <si>
+    <t>Total team road wins</t>
+  </si>
+  <si>
+    <t>RoadLosses</t>
+  </si>
+  <si>
+    <t>Total team road losses</t>
+  </si>
+  <si>
+    <t>Streak</t>
+  </si>
+  <si>
+    <t>Win/Loss streak of the team</t>
+  </si>
+  <si>
+    <t>Total opponent points scored</t>
+  </si>
+  <si>
+    <t>FirstDowns</t>
+  </si>
+  <si>
+    <t>Total first downs</t>
+  </si>
+  <si>
+    <t>ThirdDownConversions</t>
+  </si>
+  <si>
+    <t>Third down conversions</t>
+  </si>
+  <si>
+    <t>ThirdDownAttempts</t>
+  </si>
+  <si>
+    <t>Third down attempts</t>
+  </si>
+  <si>
+    <t>FourthDownConversions</t>
+  </si>
+  <si>
+    <t>Fourth down conversions</t>
+  </si>
+  <si>
+    <t>FourthDownAttempts</t>
+  </si>
+  <si>
+    <t>Fourth down attempts</t>
+  </si>
+  <si>
+    <t>Penalties</t>
+  </si>
+  <si>
+    <t>Penalties committed</t>
+  </si>
+  <si>
+    <t>PenaltyYards</t>
+  </si>
+  <si>
+    <t>Penalty yards enforced against the Team</t>
+  </si>
+  <si>
+    <t>TimeOfPossessionMinutes</t>
+  </si>
+  <si>
+    <t>Time of possesion minutes</t>
+  </si>
+  <si>
+    <t>TimeOfPossessionSeconds</t>
+  </si>
+  <si>
+    <t>Time of possession seconds</t>
+  </si>
+  <si>
+    <t>GlobalTeamID</t>
+  </si>
+  <si>
+    <t>A globally unique ID for this team. This value is guaranteed to be unique across all sports/leagues.</t>
+  </si>
+  <si>
+    <t>The season conference rank</t>
+  </si>
+  <si>
+    <t>The season division rank</t>
+  </si>
+  <si>
+    <t>Total games</t>
+  </si>
+  <si>
+    <t>Total passing attempts</t>
+  </si>
+  <si>
+    <t>Total passing completions</t>
+  </si>
+  <si>
+    <t>Total passing yards</t>
+  </si>
+  <si>
+    <t>Total passing completion percentage</t>
+  </si>
+  <si>
+    <t>Total passing yards per attempts</t>
+  </si>
+  <si>
+    <t>Total passing yards per completion</t>
+  </si>
+  <si>
+    <t>Total passing touchdowns</t>
+  </si>
+  <si>
+    <t>Total passing interceptions</t>
+  </si>
+  <si>
+    <t>Total passing rating</t>
+  </si>
+  <si>
+    <t>Total rushing attempts</t>
+  </si>
+  <si>
+    <t>Total rushing yards</t>
+  </si>
+  <si>
+    <t>Total rushing yards per attempt</t>
+  </si>
+  <si>
+    <t>Total rushing touchdowns</t>
+  </si>
+  <si>
+    <t>Longest rushing attempt</t>
+  </si>
+  <si>
+    <t>Total receptions</t>
+  </si>
+  <si>
+    <t>Total receiving yards per reception</t>
+  </si>
+  <si>
+    <t>Total receiving touchdowns</t>
+  </si>
+  <si>
+    <t>Long receiving reception</t>
+  </si>
+  <si>
+    <t>Total field goals attempted</t>
+  </si>
+  <si>
+    <t>Total field goals made</t>
+  </si>
+  <si>
+    <t>Total field goal percentage</t>
+  </si>
+  <si>
+    <t>Longest field goal made</t>
+  </si>
+  <si>
+    <t>Total extra points attempted</t>
+  </si>
+  <si>
+    <t>Total extra points made</t>
+  </si>
+  <si>
+    <t>Total interceptions</t>
+  </si>
+  <si>
+    <t>Total interception return yards</t>
+  </si>
+  <si>
+    <t>Total interception return touchdowns</t>
+  </si>
+  <si>
+    <t>Total Solo Tackles</t>
+  </si>
+  <si>
+    <t>Total Assisted Tackles</t>
+  </si>
+  <si>
+    <t>Total Tackles for a loss of yardage</t>
+  </si>
+  <si>
+    <t>Total Quarterback Sacks</t>
+  </si>
+  <si>
+    <t>Total Passes Defended</t>
+  </si>
+  <si>
+    <t>Total Fumble Recoveries</t>
+  </si>
+  <si>
+    <t>Total Fumbles Recovered and returned for a touchdown</t>
+  </si>
+  <si>
+    <t>QuarterbackHurries</t>
+  </si>
+  <si>
+    <t>Total Quarterback Hurries</t>
+  </si>
+  <si>
+    <t>Total Fumbles</t>
+  </si>
+  <si>
+    <t>Total Fumbles Lost</t>
+  </si>
+  <si>
+    <t>The auto-generated unique ID of the Team</t>
+  </si>
+  <si>
+    <t>Abbreviation of the team (e.g. OU, TTU, USC, UK, etc.)</t>
+  </si>
+  <si>
+    <t>Whether or not this team is active</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>The school of the team (e.g. Oklahoma University, Texas Tech University, University of Southern California, University of Kentucky, etc)</t>
+  </si>
+  <si>
+    <t>The mascot of the team (e.g. Sooners, Red Raiders, Trojans, Wildcats, etc.)</t>
+  </si>
+  <si>
+    <t>ApRank</t>
+  </si>
+  <si>
+    <t>The AP Rank of the team </t>
+  </si>
+  <si>
+    <t>The total number of wins by the school</t>
+  </si>
+  <si>
+    <t>The total number of losses by the school</t>
+  </si>
+  <si>
+    <t>The total number of conference wins by the school</t>
+  </si>
+  <si>
+    <t>The total number of conference losses by the school</t>
+  </si>
+  <si>
+    <t>CoachesRank</t>
+  </si>
+  <si>
+    <t>The Coaches Rank of the team </t>
+  </si>
+  <si>
+    <t>PlayoffRank</t>
+  </si>
+  <si>
+    <t>The Playoff Rank of the team </t>
+  </si>
+  <si>
+    <t>ConferenceID</t>
+  </si>
+  <si>
+    <t>The ID of the team's conference</t>
+  </si>
+  <si>
+    <t>The name of the team's conference</t>
+  </si>
+  <si>
+    <t>ShortDisplayName</t>
+  </si>
+  <si>
+    <t>The short display name of the team</t>
+  </si>
+  <si>
+    <t>Whether or not this stadium is the home venue for an active team</t>
+  </si>
+  <si>
+    <t>Dome</t>
+  </si>
+  <si>
+    <t>Indicates whether this stadium is a dome</t>
+  </si>
+  <si>
+    <t>GameID</t>
+  </si>
+  <si>
+    <t>The unique ID of this game</t>
+  </si>
+  <si>
+    <t>The College Football season of the game</t>
+  </si>
+  <si>
+    <t>The CFB week of the game (e.g. 1, 2, 3, etc.)</t>
+  </si>
+  <si>
+    <t>The date of the game</t>
+  </si>
+  <si>
+    <t>The unique ID of the home team</t>
+  </si>
+  <si>
+    <t>AwayTeamName</t>
+  </si>
+  <si>
+    <t>The name of the away team</t>
+  </si>
+  <si>
+    <t>HomeTeamName</t>
+  </si>
+  <si>
+    <t>The name of the home team</t>
+  </si>
+  <si>
+    <t>AwayTeamScore</t>
+  </si>
+  <si>
+    <t>Total number of points the away team scored in this game</t>
+  </si>
+  <si>
+    <t>HomeTeamScore</t>
+  </si>
+  <si>
+    <t>Total number of points the home team scored in this game</t>
+  </si>
+  <si>
+    <t>The oddsmaker Point Spread at game start from the perspective of the HomeTeam (negative numbers indicate the HomeTeam is favored, positive numbers indicate the AwayTeam is favored). This is updated once daily at 4:00 AM ET.</t>
+  </si>
+  <si>
+    <t>The oddsmaker Over/Under at game start. This is updated once daily at 4:00 AM ET.</t>
+  </si>
+  <si>
+    <t>The unique ID of the stadium/venue where this game was played.</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>The title of the game (e.g. Rose Bowl, Citrus Bowl, etc)</t>
+  </si>
+  <si>
+    <t>team_short</t>
   </si>
 </sst>
 </file>
@@ -1458,7 +1854,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1478,18 +1874,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1498,12 +1882,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1837,25 +2215,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="9" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2066,25 +2444,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="9" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2705,6 +3083,2768 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{4B58B18E-ACC6-4C00-8F7A-2B274EA6BEAE}"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E44243-0076-4632-8340-08691D37EA5D}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="25.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="89.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>32</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="22.5">
+      <c r="A4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>32</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="22.5">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>32</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4">
+        <v>100</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2">
+        <v>100</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <v>32</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>32</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="22.5">
+      <c r="A16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="2">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="4">
+        <v>32</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4">
+        <v>32</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="4">
+        <v>50</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G19" xr:uid="{B8E44243-0076-4632-8340-08691D37EA5D}"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA2CB13-7EB7-42BF-A5D6-6F70817519AB}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="45.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="22.5">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>50</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="22.5">
+      <c r="A7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC0EF91-CB08-4ECD-B053-4B7C941A18DC}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="7" max="7" width="49.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="33.75">
+      <c r="A5" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4">
+        <v>50</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="22.5">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>32</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>32</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>32</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="22.5">
+      <c r="A13" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>32</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>32</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4">
+        <v>32</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2">
+        <v>50</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4">
+        <v>10</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DEFFD89-2B9D-41A3-A68B-69FFB6697694}">
+  <dimension ref="A1:G73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="57.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>32</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="22.5">
+      <c r="A4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>32</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>32</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>32</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="22.5">
+      <c r="A12" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="22.5">
+      <c r="A13" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>32</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="22.5">
+      <c r="A14" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="22.5">
+      <c r="A15" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>32</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>32</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>32</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>32</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>32</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>32</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="22.5">
+      <c r="A22" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>32</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>32</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="22.5">
+      <c r="A24" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <v>32</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="22.5">
+      <c r="A25" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4">
+        <v>32</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="22.5">
+      <c r="A26" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>32</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="22.5">
+      <c r="A27" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4">
+        <v>32</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>32</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4">
+        <v>32</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="22.5">
+      <c r="A30" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
+        <v>32</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="22.5">
+      <c r="A31" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4">
+        <v>32</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="22.5">
+      <c r="A32" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
+        <v>32</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="22.5">
+      <c r="A33" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4">
+        <v>32</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>32</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="4">
+        <v>32</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="4">
+        <v>32</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="22.5">
+      <c r="A37" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="2">
+        <v>32</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="4">
+        <v>32</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="22.5">
+      <c r="A39" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="2">
+        <v>32</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="22.5">
+      <c r="A40" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="4">
+        <v>32</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="22.5">
+      <c r="A41" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="2">
+        <v>32</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="22.5">
+      <c r="A42" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="4">
+        <v>32</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="22.5">
+      <c r="A43" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="2">
+        <v>32</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="4">
+        <v>32</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="22.5">
+      <c r="A45" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="2">
+        <v>32</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="4">
+        <v>32</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="22.5">
+      <c r="A47" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="2">
+        <v>32</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="22.5">
+      <c r="A48" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="4">
+        <v>32</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="2">
+        <v>32</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="4">
+        <v>32</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="22.5">
+      <c r="A51" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="2">
+        <v>32</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="22.5">
+      <c r="A52" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="4">
+        <v>32</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="22.5">
+      <c r="A53" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="2">
+        <v>32</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="4">
+        <v>32</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="2">
+        <v>32</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="22.5">
+      <c r="A56" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="4">
+        <v>32</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="22.5">
+      <c r="A57" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="2">
+        <v>32</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="22.5">
+      <c r="A58" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="4">
+        <v>32</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="22.5">
+      <c r="A59" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="2">
+        <v>32</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="22.5">
+      <c r="A60" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="4">
+        <v>32</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="2">
+        <v>32</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="22.5">
+      <c r="A62" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" s="4">
+        <v>32</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="33.75">
+      <c r="A63" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" s="2">
+        <v>32</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" s="4">
+        <v>32</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" s="2">
+        <v>32</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" s="4">
+        <v>32</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" s="2">
+        <v>32</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68" s="4">
+        <v>32</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69" s="2">
+        <v>32</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C70" s="4">
+        <v>32</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71" s="2">
+        <v>32</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" s="4">
+        <v>32</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" s="2">
+        <v>32</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{4DEFFD89-2B9D-41A3-A68B-69FFB6697694}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2728,25 +5868,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="9" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3072,554 +6212,554 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="22.5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9">
-        <v>32</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7">
-        <v>32</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>32</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="2">
         <v>50</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="10" t="s">
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>50</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="8" t="s">
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="2">
         <v>50</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="10" t="s">
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <v>50</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="8" t="s">
+      <c r="D7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9">
-        <v>32</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="10" t="s">
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7">
-        <v>32</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="8" t="s">
+      <c r="B9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>32</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9">
-        <v>32</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="10" t="s">
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="7">
-        <v>32</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="8" t="s">
+      <c r="B11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="4">
+        <v>32</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="9">
-        <v>32</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="10" t="s">
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7">
-        <v>32</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="8" t="s">
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>32</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9">
-        <v>32</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="10" t="s">
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7">
-        <v>32</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="8" t="s">
+      <c r="B15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>32</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="9">
-        <v>32</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="10" t="s">
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="7">
-        <v>32</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="8" t="s">
+      <c r="B17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>32</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="9">
-        <v>32</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="10" t="s">
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>32</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="7">
-        <v>32</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="8" t="s">
+      <c r="B19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>32</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="9">
-        <v>32</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="10" t="s">
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>32</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="7">
-        <v>32</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="8" t="s">
+      <c r="B21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>32</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="9">
-        <v>32</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="10" t="s">
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>32</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="9">
-        <v>32</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="10" t="s">
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>32</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="14">
-        <v>32</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="15" t="s">
+      <c r="B24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="6">
+        <v>32</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>434</v>
       </c>
     </row>
@@ -3649,25 +6789,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="9" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4139,7 +7279,7 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A22" activeCellId="2" sqref="A2 A3 A22"/>
     </sheetView>
@@ -4152,30 +7292,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="22.5">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="10" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -4202,7 +7342,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -4475,7 +7615,7 @@
       <c r="A13" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="2" t="s">
         <v>435</v>
       </c>
       <c r="C13" s="2">
@@ -4637,7 +7777,7 @@
       <c r="A19" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="2" t="s">
         <v>435</v>
       </c>
       <c r="C19" s="4">
@@ -4664,22 +7804,22 @@
       <c r="A20" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="9">
-        <v>32</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="10" t="s">
+      <c r="B20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2">
+        <v>32</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>395</v>
       </c>
       <c r="I20" t="str">
@@ -4691,7 +7831,7 @@
       <c r="A21" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="2" t="s">
         <v>435</v>
       </c>
       <c r="C21" s="4">
@@ -4715,7 +7855,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="10" t="s">
         <v>397</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -4799,22 +7939,22 @@
       <c r="A25" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="14">
-        <v>32</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="15" t="s">
+      <c r="B25" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="6">
+        <v>32</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>402</v>
       </c>
       <c r="I25" t="str">
@@ -4898,25 +8038,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="9" t="s">
         <v>67</v>
       </c>
     </row>
